--- a/Data/EC/NIT-9004383032.xlsx
+++ b/Data/EC/NIT-9004383032.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC572A8-E853-45F6-88EA-0EA746C7EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C0AAF3-541D-49D1-868A-E0C5DBA5E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F48A4F8-8977-43A5-9E28-532E63930964}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC32D624-55D9-435F-B0EA-61DBA783EA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45546964</t>
+  </si>
+  <si>
+    <t>ADRIANA LISNEY PEREZ MADIEDO</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>9100670</t>
   </si>
   <si>
@@ -74,6 +83,42 @@
     <t>1910</t>
   </si>
   <si>
+    <t>73571489</t>
+  </si>
+  <si>
+    <t>LENIN JACOB IBAÑEZ PEREZ</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>73577260</t>
+  </si>
+  <si>
+    <t>MARIO RAFAEL GREY RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>9145170</t>
+  </si>
+  <si>
+    <t>HUGO ALFONSO MERCADO ZABALETA</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>73122996</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ISMAEL GUETTE SAAVEDRA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>73350017</t>
   </si>
   <si>
@@ -83,46 +128,19 @@
     <t>1911</t>
   </si>
   <si>
+    <t>1047503421</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO PUERTA DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1052075224</t>
   </si>
   <si>
     <t>WILMER ALBERTO VARGAS ZAPATA</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>73571489</t>
-  </si>
-  <si>
-    <t>LENIN JACOB IBAÑEZ PEREZ</t>
-  </si>
-  <si>
-    <t>73577260</t>
-  </si>
-  <si>
-    <t>MARIO RAFAEL GREY RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>73122996</t>
-  </si>
-  <si>
-    <t>ALEJANDRO ISMAEL GUETTE SAAVEDRA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>9145170</t>
-  </si>
-  <si>
-    <t>HUGO ALFONSO MERCADO ZABALETA</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8E60B5-B789-56DF-F2E2-141F09B4F9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994D9145-9FDB-6367-8647-3FF003DE434F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075C82D-F206-429E-AA5B-289A292A89CE}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693E5A5-6F5E-40AE-BCAE-71F632BFB6E0}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -912,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -957,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -989,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>231325</v>
+        <v>350265</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1042,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>952968</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,19 +1097,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>68000</v>
+        <v>42000</v>
       </c>
       <c r="G18" s="18">
-        <v>1700000</v>
+        <v>952968</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1125,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>17</v>
@@ -1148,13 +1166,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F20" s="18">
         <v>1211</v>
@@ -1171,75 +1189,144 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>47137</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1178421</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="F22" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G22" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="24">
-        <v>47137</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1178421</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="E23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="24">
+        <v>68000</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1700000</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004383032.xlsx
+++ b/Data/EC/NIT-9004383032.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C0AAF3-541D-49D1-868A-E0C5DBA5E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5BB242-6669-47D8-B26B-06D2A3F85C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC32D624-55D9-435F-B0EA-61DBA783EA6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2A635325-5CFE-437F-9EB2-066A041605D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,15 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45546964</t>
-  </si>
-  <si>
-    <t>ADRIANA LISNEY PEREZ MADIEDO</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
     <t>9100670</t>
   </si>
   <si>
@@ -83,6 +74,15 @@
     <t>1910</t>
   </si>
   <si>
+    <t>73350017</t>
+  </si>
+  <si>
+    <t>RICARDO POLO PATERNINA</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>73571489</t>
   </si>
   <si>
@@ -92,6 +92,12 @@
     <t>2103</t>
   </si>
   <si>
+    <t>1052075224</t>
+  </si>
+  <si>
+    <t>WILMER ALBERTO VARGAS ZAPATA</t>
+  </si>
+  <si>
     <t>73577260</t>
   </si>
   <si>
@@ -101,6 +107,15 @@
     <t>2109</t>
   </si>
   <si>
+    <t>73122996</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ISMAEL GUETTE SAAVEDRA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>9145170</t>
   </si>
   <si>
@@ -108,39 +123,6 @@
   </si>
   <si>
     <t>2201</t>
-  </si>
-  <si>
-    <t>73122996</t>
-  </si>
-  <si>
-    <t>ALEJANDRO ISMAEL GUETTE SAAVEDRA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>73350017</t>
-  </si>
-  <si>
-    <t>RICARDO POLO PATERNINA</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1047503421</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO PUERTA DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1052075224</t>
-  </si>
-  <si>
-    <t>WILMER ALBERTO VARGAS ZAPATA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,22 +221,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994D9145-9FDB-6367-8647-3FF003DE434F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC34152-F926-BB6C-4D64-74FEA8D90380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693E5A5-6F5E-40AE-BCAE-71F632BFB6E0}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2730C699-A5D6-4C0D-A7D2-3F917DC1AF40}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -930,7 +912,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +957,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1007,12 +989,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>350265</v>
+        <v>231325</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1005,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1083,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>42000</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>952968</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1097,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>2000</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1120,19 +1102,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>42000</v>
+        <v>3511</v>
       </c>
       <c r="G18" s="18">
-        <v>952968</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1143,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>3511</v>
+        <v>68000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1700000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1166,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" s="18">
         <v>1211</v>
@@ -1189,144 +1171,75 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="18">
-        <v>47137</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1178421</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="C22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G22" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="24">
-        <v>68000</v>
-      </c>
-      <c r="G25" s="24">
-        <v>1700000</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="F22" s="24">
+        <v>47137</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1178421</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
